--- a/data/trans_orig/P1409-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1409-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F220824-0295-48AF-B73C-F7590E6C198B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93F1364A-4AFE-4B91-A8C2-D49AF23B3104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7AAC4BD1-9699-4436-BCDA-92F5FD0CE0DE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{16F5921B-1136-4688-9DB8-471107F71EE6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="428">
   <si>
     <t>Población con diagnóstico de asma en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -85,1234 +85,1240 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>0,58%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>5,46%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>94,54%</t>
   </si>
   <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
   </si>
   <si>
     <t>96,13%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
   </si>
   <si>
     <t>96,8%</t>
   </si>
   <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
     <t>95,01%</t>
   </si>
   <si>
-    <t>93,57%</t>
-  </si>
-  <si>
     <t>95,75%</t>
   </si>
   <si>
     <t>95,55%</t>
   </si>
   <si>
-    <t>94,82%</t>
+    <t>94,73%</t>
   </si>
   <si>
     <t>96,1%</t>
@@ -1727,7 +1733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8134BB6-B62A-4EB9-AC41-CCCF1FFFF943}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334AE6BC-79ED-4BED-B7F6-0DFC24390613}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2614,7 +2620,7 @@
         <v>90</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -2623,13 +2629,13 @@
         <v>8870</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -2638,13 +2644,13 @@
         <v>16027</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,13 +2665,13 @@
         <v>266825</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>259</v>
@@ -2674,13 +2680,13 @@
         <v>269226</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>513</v>
@@ -2689,13 +2695,13 @@
         <v>536050</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,7 +2757,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2763,13 +2769,13 @@
         <v>9820</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -2778,13 +2784,13 @@
         <v>14974</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -2796,10 +2802,10 @@
         <v>34</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2820,13 @@
         <v>652968</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H23" s="7">
         <v>624</v>
@@ -2829,13 +2835,13 @@
         <v>678879</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M23" s="7">
         <v>1233</v>
@@ -2847,10 +2853,10 @@
         <v>43</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,7 +2912,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2918,13 +2924,13 @@
         <v>16461</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -2933,13 +2939,13 @@
         <v>21790</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -2948,13 +2954,13 @@
         <v>38251</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2975,13 @@
         <v>762637</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H26" s="7">
         <v>734</v>
@@ -3076,7 +3082,7 @@
         <v>141</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>142</v>
@@ -3088,13 +3094,13 @@
         <v>96180</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M28" s="7">
         <v>151</v>
@@ -3106,10 +3112,10 @@
         <v>20</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3130,13 @@
         <v>3361358</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H29" s="7">
         <v>3207</v>
@@ -3139,13 +3145,13 @@
         <v>3457736</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M29" s="7">
         <v>6353</v>
@@ -3157,10 +3163,10 @@
         <v>29</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,7 +3222,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3240,7 +3246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE026242-4174-49E0-B7FF-6FACC6B87B64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E846A7-9815-4CFA-91CE-0F6487626572}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3257,7 +3263,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3364,10 +3370,10 @@
         <v>10348</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>157</v>
@@ -3382,10 +3388,10 @@
         <v>158</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -3394,10 +3400,10 @@
         <v>21036</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>162</v>
@@ -3415,13 +3421,13 @@
         <v>283413</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>266</v>
@@ -3430,13 +3436,13 @@
         <v>278015</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>522</v>
@@ -3445,13 +3451,13 @@
         <v>561428</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3525,13 @@
         <v>6221</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -3534,13 +3540,13 @@
         <v>18340</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -3549,13 +3555,13 @@
         <v>24560</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3576,13 @@
         <v>496354</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>466</v>
@@ -3585,13 +3591,13 @@
         <v>504744</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>935</v>
@@ -3603,10 +3609,10 @@
         <v>138</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3680,13 @@
         <v>6173</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>186</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -3689,13 +3695,13 @@
         <v>11963</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -3704,13 +3710,13 @@
         <v>18135</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3731,13 @@
         <v>312392</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>321</v>
@@ -3740,13 +3746,13 @@
         <v>324346</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="M11" s="7">
         <v>650</v>
@@ -3755,13 +3761,13 @@
         <v>636739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3835,13 @@
         <v>15405</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -3844,13 +3850,13 @@
         <v>20177</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -3859,13 +3865,13 @@
         <v>35582</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3886,13 @@
         <v>354559</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H14" s="7">
         <v>339</v>
@@ -3895,13 +3901,13 @@
         <v>367106</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M14" s="7">
         <v>678</v>
@@ -3910,13 +3916,13 @@
         <v>721665</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +3990,13 @@
         <v>5478</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -3999,13 +4005,13 @@
         <v>6716</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4014,13 +4020,13 @@
         <v>12194</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,13 +4041,13 @@
         <v>205743</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>228</v>
       </c>
       <c r="H17" s="7">
         <v>216</v>
@@ -4050,13 +4056,13 @@
         <v>211871</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M17" s="7">
         <v>422</v>
@@ -4065,13 +4071,13 @@
         <v>417614</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4145,13 @@
         <v>3476</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>17</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -4157,10 +4163,10 @@
         <v>56</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -4169,13 +4175,13 @@
         <v>11555</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4196,13 @@
         <v>259647</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -4208,10 +4214,10 @@
         <v>65</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="M20" s="7">
         <v>510</v>
@@ -4220,13 +4226,13 @@
         <v>524683</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,7 +4288,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4294,13 +4300,13 @@
         <v>20419</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -4309,13 +4315,13 @@
         <v>30695</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -4324,13 +4330,13 @@
         <v>51114</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>110</v>
+        <v>256</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4351,13 @@
         <v>636139</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="H23" s="7">
         <v>617</v>
@@ -4360,13 +4366,13 @@
         <v>660599</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="M23" s="7">
         <v>1179</v>
@@ -4375,13 +4381,13 @@
         <v>1296738</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,7 +4443,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4449,13 +4455,13 @@
         <v>18664</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>259</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -4464,13 +4470,13 @@
         <v>34501</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="M25" s="7">
         <v>48</v>
@@ -4479,13 +4485,13 @@
         <v>53165</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4506,13 @@
         <v>759919</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>267</v>
+        <v>166</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="H26" s="7">
         <v>726</v>
@@ -4515,13 +4521,13 @@
         <v>791666</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="M26" s="7">
         <v>1457</v>
@@ -4530,13 +4536,13 @@
         <v>1551585</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,13 +4610,13 @@
         <v>86185</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="H28" s="7">
         <v>132</v>
@@ -4619,13 +4625,13 @@
         <v>141158</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>201</v>
+        <v>286</v>
       </c>
       <c r="M28" s="7">
         <v>216</v>
@@ -4634,13 +4640,13 @@
         <v>227343</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>279</v>
+        <v>208</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4661,13 @@
         <v>3308165</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>283</v>
+        <v>28</v>
       </c>
       <c r="H29" s="7">
         <v>3206</v>
@@ -4670,13 +4676,13 @@
         <v>3403384</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>26</v>
+        <v>291</v>
       </c>
       <c r="M29" s="7">
         <v>6353</v>
@@ -4685,13 +4691,13 @@
         <v>6711549</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>285</v>
+        <v>218</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,7 +4753,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4771,7 +4777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6DD893-2BE9-4525-A7A3-232DEB08C1F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4567BE-A5A6-43D7-94D5-4F772FEFA1BB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4788,7 +4794,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4895,13 +4901,13 @@
         <v>10040</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -4910,13 +4916,13 @@
         <v>11550</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>203</v>
+        <v>299</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -4925,13 +4931,13 @@
         <v>21589</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,13 +4952,13 @@
         <v>250258</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="H5" s="7">
         <v>517</v>
@@ -4961,13 +4967,13 @@
         <v>259853</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>211</v>
+        <v>307</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="M5" s="7">
         <v>839</v>
@@ -4976,13 +4982,13 @@
         <v>510111</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,13 +5056,13 @@
         <v>23848</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>304</v>
+        <v>58</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -5065,13 +5071,13 @@
         <v>24717</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>56</v>
+        <v>314</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -5080,13 +5086,13 @@
         <v>48565</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>310</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5107,13 @@
         <v>494379</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>312</v>
+        <v>66</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="H8" s="7">
         <v>679</v>
@@ -5116,13 +5122,13 @@
         <v>527915</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>65</v>
+        <v>321</v>
       </c>
       <c r="M8" s="7">
         <v>1045</v>
@@ -5131,13 +5137,13 @@
         <v>1022294</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>319</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5211,13 @@
         <v>13978</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>321</v>
+        <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -5220,13 +5226,13 @@
         <v>18952</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -5235,13 +5241,13 @@
         <v>32930</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>324</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5262,13 @@
         <v>308262</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>330</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
         <v>507</v>
@@ -5271,13 +5277,13 @@
         <v>354332</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M11" s="7">
         <v>849</v>
@@ -5286,13 +5292,13 @@
         <v>662594</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>333</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5366,13 @@
         <v>12329</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -5375,13 +5381,13 @@
         <v>22701</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -5390,13 +5396,13 @@
         <v>35031</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5417,13 @@
         <v>309911</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
         <v>585</v>
@@ -5426,13 +5432,13 @@
         <v>405855</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
         <v>866</v>
@@ -5441,13 +5447,13 @@
         <v>715765</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,13 +5521,13 @@
         <v>3773</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>352</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5530,13 +5536,13 @@
         <v>12117</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -5545,13 +5551,13 @@
         <v>15891</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5572,13 @@
         <v>192975</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>361</v>
+        <v>260</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H17" s="7">
         <v>469</v>
@@ -5581,13 +5587,13 @@
         <v>218452</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>745</v>
@@ -5596,13 +5602,13 @@
         <v>411426</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5676,13 @@
         <v>9958</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -5685,13 +5691,13 @@
         <v>15007</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>375</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>373</v>
+        <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -5700,13 +5706,13 @@
         <v>24966</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5727,13 @@
         <v>267265</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H20" s="7">
         <v>431</v>
@@ -5736,13 +5742,13 @@
         <v>259898</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>27</v>
+        <v>382</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>381</v>
+        <v>63</v>
       </c>
       <c r="M20" s="7">
         <v>786</v>
@@ -5751,13 +5757,13 @@
         <v>527161</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,7 +5819,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5825,13 +5831,13 @@
         <v>22838</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>61</v>
+        <v>386</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>232</v>
+        <v>387</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>384</v>
+        <v>93</v>
       </c>
       <c r="H22" s="7">
         <v>78</v>
@@ -5840,13 +5846,13 @@
         <v>52794</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>386</v>
+        <v>294</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M22" s="7">
         <v>98</v>
@@ -5855,13 +5861,13 @@
         <v>75632</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5882,13 @@
         <v>601817</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>69</v>
+        <v>392</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>390</v>
+        <v>100</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>238</v>
+        <v>393</v>
       </c>
       <c r="H23" s="7">
         <v>880</v>
@@ -5891,13 +5897,13 @@
         <v>750551</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>393</v>
+        <v>303</v>
       </c>
       <c r="M23" s="7">
         <v>1456</v>
@@ -5906,13 +5912,13 @@
         <v>1352368</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,7 +5974,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5980,13 +5986,13 @@
         <v>33228</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>36</v>
+        <v>398</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -5995,13 +6001,13 @@
         <v>31714</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>61</v>
+        <v>386</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>398</v>
+        <v>301</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -6010,13 +6016,13 @@
         <v>64942</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6031,13 +6037,13 @@
         <v>826200</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>44</v>
+        <v>405</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H26" s="7">
         <v>1019</v>
@@ -6046,13 +6052,13 @@
         <v>833958</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>69</v>
+        <v>392</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>406</v>
+        <v>311</v>
       </c>
       <c r="M26" s="7">
         <v>1754</v>
@@ -6061,13 +6067,13 @@
         <v>1660158</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6135,13 +6141,13 @@
         <v>129993</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>341</v>
+        <v>414</v>
       </c>
       <c r="H28" s="7">
         <v>267</v>
@@ -6150,13 +6156,13 @@
         <v>189553</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>414</v>
+        <v>330</v>
       </c>
       <c r="M28" s="7">
         <v>386</v>
@@ -6165,13 +6171,13 @@
         <v>319546</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6186,13 +6192,13 @@
         <v>3251065</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>349</v>
+        <v>421</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="H29" s="7">
         <v>5087</v>
@@ -6201,13 +6207,13 @@
         <v>3610813</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>421</v>
+        <v>337</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M29" s="7">
         <v>8340</v>
@@ -6216,13 +6222,13 @@
         <v>6861878</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6278,7 +6284,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1409-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1409-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93F1364A-4AFE-4B91-A8C2-D49AF23B3104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A9C7FC7-96BC-49BA-9413-70A1985F9241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{16F5921B-1136-4688-9DB8-471107F71EE6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EFA64304-9F02-4294-9D8D-2925348E66DE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="418">
   <si>
     <t>Población con diagnóstico de asma en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -88,1140 +88,1131 @@
     <t>0,57%</t>
   </si>
   <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
   </si>
   <si>
     <t>96,59%</t>
   </si>
   <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
   </si>
   <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
     <t>93,43%</t>
   </si>
   <si>
@@ -1231,24 +1222,15 @@
     <t>93,3%</t>
   </si>
   <si>
-    <t>96,29%</t>
-  </si>
-  <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
     <t>5,65%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
     <t>2,95%</t>
   </si>
   <si>
@@ -1261,15 +1243,9 @@
     <t>94,35%</t>
   </si>
   <si>
-    <t>97,36%</t>
-  </si>
-  <si>
     <t>95,09%</t>
   </si>
   <si>
-    <t>96,24%</t>
-  </si>
-  <si>
     <t>95,16%</t>
   </si>
   <si>
@@ -1291,9 +1267,6 @@
     <t>4,25%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
     <t>3,9%</t>
   </si>
   <si>
@@ -1313,9 +1286,6 @@
   </si>
   <si>
     <t>95,75%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
   </si>
   <si>
     <t>94,73%</t>
@@ -1733,7 +1703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334AE6BC-79ED-4BED-B7F6-0DFC24390613}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF83B6D-FEB5-4819-9108-995416A6F116}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2185,7 +2155,7 @@
         <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,13 +2170,13 @@
         <v>318115</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>311</v>
@@ -2215,13 +2185,13 @@
         <v>333900</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>624</v>
@@ -2230,13 +2200,13 @@
         <v>652015</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,7 +2262,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2304,13 +2274,13 @@
         <v>14922</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -2319,13 +2289,13 @@
         <v>20032</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -2334,13 +2304,13 @@
         <v>34954</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2325,13 @@
         <v>653798</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>608</v>
@@ -2370,13 +2340,13 @@
         <v>656164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
         <v>1219</v>
@@ -2385,13 +2355,13 @@
         <v>1309962</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,7 +2417,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2459,13 +2429,13 @@
         <v>5020</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2474,13 +2444,13 @@
         <v>5698</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2489,13 +2459,13 @@
         <v>10718</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2480,13 @@
         <v>207598</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
         <v>207</v>
@@ -2525,13 +2495,13 @@
         <v>213893</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>398</v>
@@ -2540,13 +2510,13 @@
         <v>421491</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,7 +2572,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2614,13 +2584,13 @@
         <v>7156</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -2629,13 +2599,13 @@
         <v>8870</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -2644,13 +2614,13 @@
         <v>16027</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,13 +2635,13 @@
         <v>266825</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>259</v>
@@ -2680,13 +2650,13 @@
         <v>269226</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>513</v>
@@ -2695,13 +2665,13 @@
         <v>536050</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,7 +2727,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2769,13 +2739,13 @@
         <v>9820</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -2784,13 +2754,13 @@
         <v>14974</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -2802,10 +2772,10 @@
         <v>34</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2790,13 @@
         <v>652968</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H23" s="7">
         <v>624</v>
@@ -2835,13 +2805,13 @@
         <v>678879</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M23" s="7">
         <v>1233</v>
@@ -2850,13 +2820,13 @@
         <v>1331847</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,7 +2882,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2924,13 +2894,13 @@
         <v>16461</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -2939,13 +2909,13 @@
         <v>21790</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -2954,13 +2924,13 @@
         <v>38251</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2945,13 @@
         <v>762637</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H26" s="7">
         <v>734</v>
@@ -2990,13 +2960,13 @@
         <v>799605</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M26" s="7">
         <v>1436</v>
@@ -3005,13 +2975,13 @@
         <v>1562242</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3049,13 @@
         <v>65421</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="H28" s="7">
         <v>88</v>
@@ -3094,13 +3064,13 @@
         <v>96180</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="M28" s="7">
         <v>151</v>
@@ -3112,10 +3082,10 @@
         <v>20</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3100,13 @@
         <v>3361358</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="H29" s="7">
         <v>3207</v>
@@ -3145,13 +3115,13 @@
         <v>3457736</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M29" s="7">
         <v>6353</v>
@@ -3163,10 +3133,10 @@
         <v>29</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,7 +3192,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3246,7 +3216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E846A7-9815-4CFA-91CE-0F6487626572}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB73B7FE-4A3B-4DD8-AA2A-FBC6ED4DE05A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3263,7 +3233,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3370,13 +3340,13 @@
         <v>10348</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -3385,13 +3355,13 @@
         <v>10688</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -3400,13 +3370,13 @@
         <v>21036</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3391,13 @@
         <v>283413</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
         <v>266</v>
@@ -3436,13 +3406,13 @@
         <v>278015</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
         <v>522</v>
@@ -3451,13 +3421,13 @@
         <v>561428</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3495,13 @@
         <v>6221</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -3540,13 +3510,13 @@
         <v>18340</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -3555,13 +3525,13 @@
         <v>24560</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3546,13 @@
         <v>496354</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>466</v>
@@ -3591,13 +3561,13 @@
         <v>504744</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>935</v>
@@ -3606,13 +3576,13 @@
         <v>1001099</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3650,13 @@
         <v>6173</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -3695,13 +3665,13 @@
         <v>11963</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -3710,13 +3680,13 @@
         <v>18135</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3701,13 @@
         <v>312392</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
         <v>321</v>
@@ -3746,13 +3716,13 @@
         <v>324346</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M11" s="7">
         <v>650</v>
@@ -3761,13 +3731,13 @@
         <v>636739</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,7 +3793,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3835,13 +3805,13 @@
         <v>15405</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -3850,13 +3820,13 @@
         <v>20177</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -3865,13 +3835,13 @@
         <v>35582</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,13 +3856,13 @@
         <v>354559</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H14" s="7">
         <v>339</v>
@@ -3901,13 +3871,13 @@
         <v>367106</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M14" s="7">
         <v>678</v>
@@ -3916,13 +3886,13 @@
         <v>721665</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,7 +3948,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3990,13 +3960,13 @@
         <v>5478</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4005,13 +3975,13 @@
         <v>6716</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4020,13 +3990,13 @@
         <v>12194</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4011,13 @@
         <v>205743</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H17" s="7">
         <v>216</v>
@@ -4056,13 +4026,13 @@
         <v>211871</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>60</v>
       </c>
       <c r="M17" s="7">
         <v>422</v>
@@ -4071,13 +4041,13 @@
         <v>417614</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,7 +4103,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4145,13 +4115,13 @@
         <v>3476</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -4160,13 +4130,13 @@
         <v>8079</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -4175,13 +4145,13 @@
         <v>11555</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4166,13 @@
         <v>259647</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -4211,13 +4181,13 @@
         <v>265036</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M20" s="7">
         <v>510</v>
@@ -4226,13 +4196,13 @@
         <v>524683</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,7 +4258,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4300,13 +4270,13 @@
         <v>20419</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -4315,13 +4285,13 @@
         <v>30695</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -4330,13 +4300,13 @@
         <v>51114</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4321,13 @@
         <v>636139</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H23" s="7">
         <v>617</v>
@@ -4366,13 +4336,13 @@
         <v>660599</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="M23" s="7">
         <v>1179</v>
@@ -4381,13 +4351,13 @@
         <v>1296738</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,7 +4413,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4455,13 +4425,13 @@
         <v>18664</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -4470,13 +4440,13 @@
         <v>34501</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>269</v>
+        <v>73</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M25" s="7">
         <v>48</v>
@@ -4485,13 +4455,13 @@
         <v>53165</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4476,13 @@
         <v>759919</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>166</v>
+        <v>270</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H26" s="7">
         <v>726</v>
@@ -4521,13 +4491,13 @@
         <v>791666</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>277</v>
+        <v>80</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M26" s="7">
         <v>1457</v>
@@ -4536,13 +4506,13 @@
         <v>1551585</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4580,13 @@
         <v>86185</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H28" s="7">
         <v>132</v>
@@ -4625,13 +4595,13 @@
         <v>141158</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M28" s="7">
         <v>216</v>
@@ -4640,13 +4610,13 @@
         <v>227343</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>208</v>
+        <v>281</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4631,13 @@
         <v>3308165</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>28</v>
+        <v>285</v>
       </c>
       <c r="H29" s="7">
         <v>3206</v>
@@ -4676,13 +4646,13 @@
         <v>3403384</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>291</v>
+        <v>216</v>
       </c>
       <c r="M29" s="7">
         <v>6353</v>
@@ -4691,13 +4661,13 @@
         <v>6711549</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>218</v>
+        <v>288</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,7 +4723,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4777,7 +4747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4567BE-A5A6-43D7-94D5-4F772FEFA1BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A043A25-C0BD-4DFB-B8EA-BCFD0BECEA8B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4794,7 +4764,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4901,13 +4871,13 @@
         <v>10040</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -4916,13 +4886,13 @@
         <v>11550</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>299</v>
+        <v>207</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -4931,13 +4901,13 @@
         <v>21589</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4922,13 @@
         <v>250258</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H5" s="7">
         <v>517</v>
@@ -4967,13 +4937,13 @@
         <v>259853</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>307</v>
+        <v>215</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M5" s="7">
         <v>839</v>
@@ -4982,13 +4952,13 @@
         <v>510111</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,13 +5026,13 @@
         <v>23848</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>58</v>
+        <v>308</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -5071,13 +5041,13 @@
         <v>24717</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -5086,13 +5056,13 @@
         <v>48565</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>314</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5077,13 @@
         <v>494379</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>66</v>
+        <v>316</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H8" s="7">
         <v>679</v>
@@ -5122,13 +5092,13 @@
         <v>527915</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M8" s="7">
         <v>1045</v>
@@ -5137,13 +5107,13 @@
         <v>1022294</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,10 +5184,10 @@
         <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>325</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -5226,13 +5196,13 @@
         <v>18952</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -5241,13 +5211,13 @@
         <v>32930</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>42</v>
+        <v>331</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5232,13 @@
         <v>308262</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>335</v>
       </c>
       <c r="H11" s="7">
         <v>507</v>
@@ -5277,13 +5247,13 @@
         <v>354332</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M11" s="7">
         <v>849</v>
@@ -5292,13 +5262,13 @@
         <v>662594</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,7 +5324,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5366,13 +5336,13 @@
         <v>12329</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>339</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -5381,13 +5351,13 @@
         <v>22701</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>341</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -5396,13 +5366,13 @@
         <v>35031</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>344</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5387,13 @@
         <v>309911</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>349</v>
+        <v>255</v>
       </c>
       <c r="H14" s="7">
         <v>585</v>
@@ -5432,13 +5402,13 @@
         <v>405855</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M14" s="7">
         <v>866</v>
@@ -5447,13 +5417,13 @@
         <v>715765</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,7 +5479,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5521,13 +5491,13 @@
         <v>3773</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5536,13 +5506,13 @@
         <v>12117</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -5551,13 +5521,13 @@
         <v>15891</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5542,13 @@
         <v>192975</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>260</v>
+        <v>165</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
         <v>469</v>
@@ -5587,13 +5557,13 @@
         <v>218452</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>745</v>
@@ -5602,13 +5572,13 @@
         <v>411426</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,7 +5634,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5676,13 +5646,13 @@
         <v>9958</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -5691,13 +5661,13 @@
         <v>15007</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -5706,13 +5676,13 @@
         <v>24966</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>208</v>
+        <v>281</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5697,13 @@
         <v>267265</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H20" s="7">
         <v>431</v>
@@ -5742,13 +5712,13 @@
         <v>259898</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="M20" s="7">
         <v>786</v>
@@ -5757,13 +5727,13 @@
         <v>527161</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>218</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,7 +5789,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5831,13 +5801,13 @@
         <v>22838</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>387</v>
+        <v>140</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>93</v>
+        <v>385</v>
       </c>
       <c r="H22" s="7">
         <v>78</v>
@@ -5846,13 +5816,13 @@
         <v>52794</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M22" s="7">
         <v>98</v>
@@ -5861,13 +5831,13 @@
         <v>75632</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>341</v>
+        <v>174</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>390</v>
+        <v>283</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5852,13 @@
         <v>601817</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>100</v>
+        <v>390</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>393</v>
+        <v>146</v>
       </c>
       <c r="H23" s="7">
         <v>880</v>
@@ -5897,13 +5867,13 @@
         <v>750551</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>1456</v>
@@ -5912,13 +5882,13 @@
         <v>1352368</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>397</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,7 +5944,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5986,13 +5956,13 @@
         <v>33228</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>399</v>
+        <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -6001,13 +5971,13 @@
         <v>31714</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -6016,13 +5986,13 @@
         <v>64942</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>402</v>
+        <v>263</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,13 +6007,13 @@
         <v>826200</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>407</v>
+        <v>24</v>
       </c>
       <c r="H26" s="7">
         <v>1019</v>
@@ -6052,13 +6022,13 @@
         <v>833958</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M26" s="7">
         <v>1754</v>
@@ -6067,13 +6037,13 @@
         <v>1660158</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>409</v>
+        <v>270</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,13 +6111,13 @@
         <v>129993</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="H28" s="7">
         <v>267</v>
@@ -6156,13 +6126,13 @@
         <v>189553</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M28" s="7">
         <v>386</v>
@@ -6171,13 +6141,13 @@
         <v>319546</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>417</v>
+        <v>184</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,13 +6162,13 @@
         <v>3251065</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="H29" s="7">
         <v>5087</v>
@@ -6207,13 +6177,13 @@
         <v>3610813</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="M29" s="7">
         <v>8340</v>
@@ -6222,13 +6192,13 @@
         <v>6861878</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>425</v>
+        <v>191</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,7 +6254,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1409-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1409-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A9C7FC7-96BC-49BA-9413-70A1985F9241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FFBFF24-A19B-4511-93CB-86C69CA7F23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EFA64304-9F02-4294-9D8D-2925348E66DE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6ABAC0CC-9D5C-4233-A60F-3A79D8E1706C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="426">
   <si>
     <t>Población con diagnóstico de asma en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -85,1210 +85,1234 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>98,57%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>4,18%</t>
   </si>
   <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>95,82%</t>
   </si>
   <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
   </si>
   <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
   </si>
   <si>
     <t>94,82%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
   </si>
   <si>
     <t>96,1%</t>
@@ -1703,7 +1727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF83B6D-FEB5-4819-9108-995416A6F116}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57D872A-EA57-49DA-9C33-2304FBCB7E2E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2155,7 +2179,7 @@
         <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,13 +2194,13 @@
         <v>318115</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>311</v>
@@ -2185,13 +2209,13 @@
         <v>333900</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>624</v>
@@ -2200,13 +2224,13 @@
         <v>652015</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,7 +2286,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2274,13 +2298,13 @@
         <v>14922</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -2289,13 +2313,13 @@
         <v>20032</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -2304,13 +2328,13 @@
         <v>34954</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,13 +2349,13 @@
         <v>653798</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>608</v>
@@ -2340,13 +2364,13 @@
         <v>656164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>1219</v>
@@ -2355,13 +2379,13 @@
         <v>1309962</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,7 +2441,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2429,13 +2453,13 @@
         <v>5020</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2444,13 +2468,13 @@
         <v>5698</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2459,13 +2483,13 @@
         <v>10718</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,13 +2504,13 @@
         <v>207598</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>207</v>
@@ -2495,13 +2519,13 @@
         <v>213893</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>398</v>
@@ -2510,13 +2534,13 @@
         <v>421491</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,7 +2596,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2584,13 +2608,13 @@
         <v>7156</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -2599,13 +2623,13 @@
         <v>8870</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -2614,13 +2638,13 @@
         <v>16027</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,13 +2659,13 @@
         <v>266825</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>259</v>
@@ -2650,13 +2674,13 @@
         <v>269226</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>513</v>
@@ -2665,13 +2689,13 @@
         <v>536050</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,7 +2751,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2739,13 +2763,13 @@
         <v>9820</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -2754,13 +2778,13 @@
         <v>14974</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -2772,10 +2796,10 @@
         <v>34</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,13 +2814,13 @@
         <v>652968</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H23" s="7">
         <v>624</v>
@@ -2805,13 +2829,13 @@
         <v>678879</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
         <v>1233</v>
@@ -2820,13 +2844,13 @@
         <v>1331847</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,7 +2906,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2894,13 +2918,13 @@
         <v>16461</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -2909,13 +2933,13 @@
         <v>21790</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -2924,13 +2948,13 @@
         <v>38251</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2969,13 @@
         <v>762637</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="H26" s="7">
         <v>734</v>
@@ -2960,13 +2984,13 @@
         <v>799605</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>1436</v>
@@ -2975,13 +2999,13 @@
         <v>1562242</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3073,13 @@
         <v>65421</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="H28" s="7">
         <v>88</v>
@@ -3064,13 +3088,13 @@
         <v>96180</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="M28" s="7">
         <v>151</v>
@@ -3082,10 +3106,10 @@
         <v>20</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3124,13 @@
         <v>3361358</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="H29" s="7">
         <v>3207</v>
@@ -3115,13 +3139,13 @@
         <v>3457736</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M29" s="7">
         <v>6353</v>
@@ -3133,10 +3157,10 @@
         <v>29</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,7 +3216,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3216,7 +3240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB73B7FE-4A3B-4DD8-AA2A-FBC6ED4DE05A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B241BB-A912-46D8-9863-94D0C6F5A81D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3233,7 +3257,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3340,13 +3364,13 @@
         <v>10348</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -3355,13 +3379,13 @@
         <v>10688</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -3370,13 +3394,13 @@
         <v>21036</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3415,13 @@
         <v>283413</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="H5" s="7">
         <v>266</v>
@@ -3406,13 +3430,13 @@
         <v>278015</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="M5" s="7">
         <v>522</v>
@@ -3525,13 +3549,13 @@
         <v>24560</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>175</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,10 +3600,10 @@
         <v>1001099</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>182</v>
@@ -3650,10 +3674,10 @@
         <v>6173</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>184</v>
@@ -3668,10 +3692,10 @@
         <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -3680,13 +3704,13 @@
         <v>18135</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3725,13 @@
         <v>312392</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>321</v>
@@ -3716,13 +3740,13 @@
         <v>324346</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M11" s="7">
         <v>650</v>
@@ -3731,13 +3755,13 @@
         <v>636739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,7 +3817,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3805,13 +3829,13 @@
         <v>15405</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -3820,13 +3844,13 @@
         <v>20177</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -3835,13 +3859,13 @@
         <v>35582</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3880,13 @@
         <v>354559</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>339</v>
@@ -3871,13 +3895,13 @@
         <v>367106</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>678</v>
@@ -3886,13 +3910,13 @@
         <v>721665</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,7 +3972,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3960,13 +3984,13 @@
         <v>5478</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -3975,13 +3999,13 @@
         <v>6716</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3990,13 +4014,13 @@
         <v>12194</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4035,13 @@
         <v>205743</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>216</v>
@@ -4026,13 +4050,13 @@
         <v>211871</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="M17" s="7">
         <v>422</v>
@@ -4041,13 +4065,13 @@
         <v>417614</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,7 +4127,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4115,13 +4139,13 @@
         <v>3476</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -4130,13 +4154,13 @@
         <v>8079</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -4145,13 +4169,13 @@
         <v>11555</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4190,13 @@
         <v>259647</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -4181,13 +4205,13 @@
         <v>265036</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M20" s="7">
         <v>510</v>
@@ -4196,13 +4220,13 @@
         <v>524683</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,7 +4282,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4270,13 +4294,13 @@
         <v>20419</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -4285,13 +4309,13 @@
         <v>30695</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -4300,13 +4324,13 @@
         <v>51114</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>251</v>
+        <v>110</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4345,13 @@
         <v>636139</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H23" s="7">
         <v>617</v>
@@ -4336,13 +4360,13 @@
         <v>660599</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="M23" s="7">
         <v>1179</v>
@@ -4351,13 +4375,13 @@
         <v>1296738</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>260</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,7 +4437,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4425,13 +4449,13 @@
         <v>18664</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -4440,13 +4464,13 @@
         <v>34501</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M25" s="7">
         <v>48</v>
@@ -4455,13 +4479,13 @@
         <v>53165</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4500,13 @@
         <v>759919</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H26" s="7">
         <v>726</v>
@@ -4491,13 +4515,13 @@
         <v>791666</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M26" s="7">
         <v>1457</v>
@@ -4506,13 +4530,13 @@
         <v>1551585</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,13 +4604,13 @@
         <v>86185</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H28" s="7">
         <v>132</v>
@@ -4595,13 +4619,13 @@
         <v>141158</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>280</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>216</v>
@@ -4610,13 +4634,13 @@
         <v>227343</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4655,13 @@
         <v>3308165</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H29" s="7">
         <v>3206</v>
@@ -4646,13 +4670,13 @@
         <v>3403384</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>287</v>
+        <v>210</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>216</v>
+        <v>26</v>
       </c>
       <c r="M29" s="7">
         <v>6353</v>
@@ -4661,13 +4685,13 @@
         <v>6711549</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,7 +4747,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4747,7 +4771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A043A25-C0BD-4DFB-B8EA-BCFD0BECEA8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687012FD-C18B-45CD-B1CB-6232AAA45B7A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4764,7 +4788,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4871,13 +4895,13 @@
         <v>10040</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -4886,13 +4910,13 @@
         <v>11550</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -4901,13 +4925,13 @@
         <v>21589</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4946,13 @@
         <v>250258</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H5" s="7">
         <v>517</v>
@@ -4937,13 +4961,13 @@
         <v>259853</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
         <v>839</v>
@@ -4952,13 +4976,13 @@
         <v>510111</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5050,13 @@
         <v>23848</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -5041,13 +5065,13 @@
         <v>24717</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>311</v>
+        <v>56</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -5056,13 +5080,13 @@
         <v>48565</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5101,13 @@
         <v>494379</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="H8" s="7">
         <v>679</v>
@@ -5092,13 +5116,13 @@
         <v>527915</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>320</v>
+        <v>65</v>
       </c>
       <c r="M8" s="7">
         <v>1045</v>
@@ -5107,13 +5131,13 @@
         <v>1022294</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5205,13 @@
         <v>13978</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -5196,13 +5220,13 @@
         <v>18952</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -5211,13 +5235,13 @@
         <v>32930</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5256,13 @@
         <v>308262</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H11" s="7">
         <v>507</v>
@@ -5247,13 +5271,13 @@
         <v>354332</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M11" s="7">
         <v>849</v>
@@ -5262,13 +5286,13 @@
         <v>662594</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,7 +5348,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5336,13 +5360,13 @@
         <v>12329</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -5351,13 +5375,13 @@
         <v>22701</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>338</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -5366,13 +5390,13 @@
         <v>35031</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5411,13 @@
         <v>309911</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>255</v>
+        <v>49</v>
       </c>
       <c r="H14" s="7">
         <v>585</v>
@@ -5402,13 +5426,13 @@
         <v>405855</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
         <v>866</v>
@@ -5417,13 +5441,13 @@
         <v>715765</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,7 +5503,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5491,13 +5515,13 @@
         <v>3773</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>155</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5506,13 +5530,13 @@
         <v>12117</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -5521,13 +5545,13 @@
         <v>15891</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,7 +5566,7 @@
         <v>192975</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>165</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>362</v>
@@ -5634,7 +5658,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5661,10 +5685,10 @@
         <v>15007</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>374</v>
@@ -5679,7 +5703,7 @@
         <v>375</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>281</v>
+        <v>202</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>376</v>
@@ -5712,13 +5736,13 @@
         <v>259898</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M20" s="7">
         <v>786</v>
@@ -5733,7 +5757,7 @@
         <v>383</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>288</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,7 +5813,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5801,13 +5825,13 @@
         <v>22838</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="H22" s="7">
         <v>78</v>
@@ -5816,10 +5840,10 @@
         <v>52794</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>387</v>
@@ -5831,13 +5855,13 @@
         <v>75632</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>174</v>
+        <v>338</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>283</v>
+        <v>388</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5876,13 @@
         <v>601817</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>389</v>
+        <v>69</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>390</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>146</v>
+        <v>238</v>
       </c>
       <c r="H23" s="7">
         <v>880</v>
@@ -5873,7 +5897,7 @@
         <v>392</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>300</v>
+        <v>393</v>
       </c>
       <c r="M23" s="7">
         <v>1456</v>
@@ -5882,13 +5906,13 @@
         <v>1352368</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>180</v>
+        <v>346</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>289</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,7 +5968,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5956,13 +5980,13 @@
         <v>33228</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>394</v>
+        <v>36</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>16</v>
+        <v>396</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -5971,13 +5995,13 @@
         <v>31714</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>384</v>
+        <v>61</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>298</v>
+        <v>398</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -5986,13 +6010,13 @@
         <v>64942</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>263</v>
+        <v>400</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6007,13 +6031,13 @@
         <v>826200</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>399</v>
+        <v>44</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>24</v>
+        <v>404</v>
       </c>
       <c r="H26" s="7">
         <v>1019</v>
@@ -6022,13 +6046,13 @@
         <v>833958</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>389</v>
+        <v>69</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>307</v>
+        <v>406</v>
       </c>
       <c r="M26" s="7">
         <v>1754</v>
@@ -6037,13 +6061,13 @@
         <v>1660158</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>270</v>
+        <v>407</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6111,13 +6135,13 @@
         <v>129993</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>406</v>
+        <v>341</v>
       </c>
       <c r="H28" s="7">
         <v>267</v>
@@ -6126,13 +6150,13 @@
         <v>189553</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
       <c r="M28" s="7">
         <v>386</v>
@@ -6141,13 +6165,13 @@
         <v>319546</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>184</v>
+        <v>415</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6162,13 +6186,13 @@
         <v>3251065</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>412</v>
+        <v>349</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="H29" s="7">
         <v>5087</v>
@@ -6177,13 +6201,13 @@
         <v>3610813</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>340</v>
+        <v>421</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="M29" s="7">
         <v>8340</v>
@@ -6192,13 +6216,13 @@
         <v>6861878</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>191</v>
+        <v>423</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6254,7 +6278,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1409-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1409-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FFBFF24-A19B-4511-93CB-86C69CA7F23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88494B04-BA7E-4597-B2D9-C7318529AA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6ABAC0CC-9D5C-4233-A60F-3A79D8E1706C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{06F035DA-8006-4FA8-9969-162006D61A01}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="435">
   <si>
     <t>Población con diagnóstico de asma en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -73,12 +73,66 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -94,9 +148,6 @@
     <t>3,38%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
     <t>5,46%</t>
   </si>
   <si>
@@ -124,9 +175,6 @@
     <t>94,54%</t>
   </si>
   <si>
-    <t>97,99%</t>
-  </si>
-  <si>
     <t>97,69%</t>
   </si>
   <si>
@@ -136,9 +184,6 @@
     <t>98,4%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -199,1123 +244,1105 @@
     <t>Granada</t>
   </si>
   <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
   </si>
   <si>
     <t>97,77%</t>
   </si>
   <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
   </si>
   <si>
     <t>96,8%</t>
   </si>
   <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57D872A-EA57-49DA-9C33-2304FBCB7E2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0572B9D-5A11-4D4D-9957-EA4449431212}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1845,88 +1872,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7840</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>11161</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="N4" s="7">
+        <v>19001</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>274</v>
+      </c>
+      <c r="D5" s="7">
+        <v>286898</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>246</v>
+      </c>
+      <c r="I5" s="7">
+        <v>276084</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>520</v>
+      </c>
+      <c r="N5" s="7">
+        <v>562982</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1935,48 +1974,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1988,13 +2033,13 @@
         <v>6110</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -2003,13 +2048,13 @@
         <v>17695</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -2018,19 +2063,19 @@
         <v>23805</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>466</v>
@@ -2039,13 +2084,13 @@
         <v>499417</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>464</v>
@@ -2054,13 +2099,13 @@
         <v>506070</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
         <v>930</v>
@@ -2069,13 +2114,13 @@
         <v>1005487</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,13 +2135,13 @@
         <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>480</v>
@@ -2105,13 +2150,13 @@
         <v>523765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>952</v>
@@ -2120,18 +2165,18 @@
         <v>1029292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2143,13 +2188,13 @@
         <v>5931</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2158,13 +2203,13 @@
         <v>7120</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2173,19 +2218,19 @@
         <v>13051</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>313</v>
@@ -2194,13 +2239,13 @@
         <v>318115</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>311</v>
@@ -2209,13 +2254,13 @@
         <v>333900</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>624</v>
@@ -2224,13 +2269,13 @@
         <v>652015</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,13 +2290,13 @@
         <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2260,13 +2305,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>636</v>
@@ -2275,117 +2320,117 @@
         <v>665066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>14922</v>
+        <v>7082</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>20032</v>
+        <v>8871</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>34954</v>
+        <v>15954</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>611</v>
+        <v>337</v>
       </c>
       <c r="D14" s="7">
-        <v>653798</v>
+        <v>366900</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>608</v>
+        <v>362</v>
       </c>
       <c r="I14" s="7">
-        <v>656164</v>
+        <v>380080</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
-        <v>1219</v>
+        <v>699</v>
       </c>
       <c r="N14" s="7">
-        <v>1309962</v>
+        <v>746979</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,54 +2439,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2453,13 +2498,13 @@
         <v>5020</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2468,13 +2513,13 @@
         <v>5698</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2483,19 +2528,19 @@
         <v>10718</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>191</v>
@@ -2504,13 +2549,13 @@
         <v>207598</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>207</v>
@@ -2519,13 +2564,13 @@
         <v>213893</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>398</v>
@@ -2534,13 +2579,13 @@
         <v>421491</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,13 +2600,13 @@
         <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -2570,13 +2615,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -2585,18 +2630,18 @@
         <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2608,13 +2653,13 @@
         <v>7156</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -2623,13 +2668,13 @@
         <v>8870</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -2638,19 +2683,19 @@
         <v>16027</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>254</v>
@@ -2659,13 +2704,13 @@
         <v>266825</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>259</v>
@@ -2674,13 +2719,13 @@
         <v>269226</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>513</v>
@@ -2689,13 +2734,13 @@
         <v>536050</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,13 +2755,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -2725,13 +2770,13 @@
         <v>278096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -2740,18 +2785,18 @@
         <v>552077</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2763,13 +2808,13 @@
         <v>9820</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -2778,13 +2823,13 @@
         <v>14974</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -2793,19 +2838,19 @@
         <v>24794</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>609</v>
@@ -2814,13 +2859,13 @@
         <v>652968</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>624</v>
@@ -2829,13 +2874,13 @@
         <v>678879</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>1233</v>
@@ -2844,13 +2889,13 @@
         <v>1331847</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,13 +2910,13 @@
         <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>636</v>
@@ -2880,13 +2925,13 @@
         <v>693853</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1254</v>
@@ -2895,18 +2940,18 @@
         <v>1356641</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2918,13 +2963,13 @@
         <v>16461</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -2933,13 +2978,13 @@
         <v>21790</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -2948,19 +2993,19 @@
         <v>38251</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>702</v>
@@ -2969,13 +3014,13 @@
         <v>762637</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H26" s="7">
         <v>734</v>
@@ -2984,13 +3029,13 @@
         <v>799605</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>1436</v>
@@ -2999,13 +3044,13 @@
         <v>1562242</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +3065,13 @@
         <v>779098</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -3035,13 +3080,13 @@
         <v>821395</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1472</v>
@@ -3050,13 +3095,13 @@
         <v>1600493</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3118,13 @@
         <v>65421</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H28" s="7">
         <v>88</v>
@@ -3088,13 +3133,13 @@
         <v>96180</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M28" s="7">
         <v>151</v>
@@ -3103,19 +3148,19 @@
         <v>161602</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3146</v>
@@ -3124,13 +3169,13 @@
         <v>3361358</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="H29" s="7">
         <v>3207</v>
@@ -3139,13 +3184,13 @@
         <v>3457736</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M29" s="7">
         <v>6353</v>
@@ -3154,13 +3199,13 @@
         <v>6819092</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3220,13 @@
         <v>3426779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3295</v>
@@ -3190,13 +3235,13 @@
         <v>3553916</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6504</v>
@@ -3205,18 +3250,18 @@
         <v>6980694</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3240,7 +3285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B241BB-A912-46D8-9863-94D0C6F5A81D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E29200-E24F-4E29-A9F0-95A00FC919EC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3257,7 +3302,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3364,13 +3409,13 @@
         <v>10348</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -3379,13 +3424,13 @@
         <v>10688</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -3394,19 +3439,19 @@
         <v>21036</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>256</v>
@@ -3415,13 +3460,13 @@
         <v>283413</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H5" s="7">
         <v>266</v>
@@ -3430,13 +3475,13 @@
         <v>278015</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="M5" s="7">
         <v>522</v>
@@ -3445,13 +3490,13 @@
         <v>561428</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3511,13 @@
         <v>293761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -3481,13 +3526,13 @@
         <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>543</v>
@@ -3496,18 +3541,18 @@
         <v>582464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3519,13 +3564,13 @@
         <v>6221</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -3534,13 +3579,13 @@
         <v>18340</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -3549,19 +3594,19 @@
         <v>24560</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>469</v>
@@ -3570,13 +3615,13 @@
         <v>496354</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="H8" s="7">
         <v>466</v>
@@ -3585,13 +3630,13 @@
         <v>504744</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="M8" s="7">
         <v>935</v>
@@ -3600,13 +3645,13 @@
         <v>1001099</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,13 +3666,13 @@
         <v>502575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>484</v>
@@ -3636,13 +3681,13 @@
         <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>959</v>
@@ -3651,18 +3696,18 @@
         <v>1025659</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3674,13 +3719,13 @@
         <v>6173</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -3689,13 +3734,13 @@
         <v>11963</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -3704,19 +3749,19 @@
         <v>18135</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>329</v>
@@ -3725,13 +3770,13 @@
         <v>312392</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>321</v>
@@ -3740,13 +3785,13 @@
         <v>324346</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>650</v>
@@ -3755,13 +3800,13 @@
         <v>636739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3821,13 @@
         <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
@@ -3791,13 +3836,13 @@
         <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>667</v>
@@ -3806,18 +3851,18 @@
         <v>654874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3829,13 +3874,13 @@
         <v>15405</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -3844,13 +3889,13 @@
         <v>20177</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -3859,19 +3904,19 @@
         <v>35582</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>339</v>
@@ -3880,13 +3925,13 @@
         <v>354559</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>339</v>
@@ -3895,13 +3940,13 @@
         <v>367106</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>678</v>
@@ -3910,13 +3955,13 @@
         <v>721665</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +3976,13 @@
         <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>358</v>
@@ -3946,13 +3991,13 @@
         <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>712</v>
@@ -3961,18 +4006,18 @@
         <v>757247</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3984,13 +4029,13 @@
         <v>5478</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -3999,13 +4044,13 @@
         <v>6716</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4014,19 +4059,19 @@
         <v>12194</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>206</v>
@@ -4035,13 +4080,13 @@
         <v>205743</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>216</v>
@@ -4050,13 +4095,13 @@
         <v>211871</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="M17" s="7">
         <v>422</v>
@@ -4065,13 +4110,13 @@
         <v>417614</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4131,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -4101,13 +4146,13 @@
         <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -4116,18 +4161,18 @@
         <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4139,13 +4184,13 @@
         <v>3476</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -4154,13 +4199,13 @@
         <v>8079</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -4169,19 +4214,19 @@
         <v>11555</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>255</v>
@@ -4190,13 +4235,13 @@
         <v>259647</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -4205,13 +4250,13 @@
         <v>265036</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>65</v>
+        <v>253</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="M20" s="7">
         <v>510</v>
@@ -4220,13 +4265,13 @@
         <v>524683</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4286,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -4256,13 +4301,13 @@
         <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>522</v>
@@ -4271,18 +4316,18 @@
         <v>536238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4294,13 +4339,13 @@
         <v>20419</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -4309,13 +4354,13 @@
         <v>30695</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -4324,19 +4369,19 @@
         <v>51114</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>562</v>
@@ -4345,13 +4390,13 @@
         <v>636139</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="H23" s="7">
         <v>617</v>
@@ -4360,13 +4405,13 @@
         <v>660599</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="M23" s="7">
         <v>1179</v>
@@ -4375,13 +4420,13 @@
         <v>1296738</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4441,13 @@
         <v>656558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>646</v>
@@ -4411,13 +4456,13 @@
         <v>691294</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1226</v>
@@ -4426,18 +4471,18 @@
         <v>1347852</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4449,13 +4494,13 @@
         <v>18664</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -4464,13 +4509,13 @@
         <v>34501</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="M25" s="7">
         <v>48</v>
@@ -4479,19 +4524,19 @@
         <v>53165</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>731</v>
@@ -4500,13 +4545,13 @@
         <v>759919</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="H26" s="7">
         <v>726</v>
@@ -4515,13 +4560,13 @@
         <v>791666</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="M26" s="7">
         <v>1457</v>
@@ -4530,13 +4575,13 @@
         <v>1551585</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4596,13 @@
         <v>778583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -4566,13 +4611,13 @@
         <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1505</v>
@@ -4581,13 +4626,13 @@
         <v>1604750</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,13 +4649,13 @@
         <v>86185</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="H28" s="7">
         <v>132</v>
@@ -4619,13 +4664,13 @@
         <v>141158</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="M28" s="7">
         <v>216</v>
@@ -4634,19 +4679,19 @@
         <v>227343</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3147</v>
@@ -4655,13 +4700,13 @@
         <v>3308165</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="H29" s="7">
         <v>3206</v>
@@ -4670,13 +4715,13 @@
         <v>3403384</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M29" s="7">
         <v>6353</v>
@@ -4685,13 +4730,13 @@
         <v>6711549</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4751,13 @@
         <v>3394350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3338</v>
@@ -4721,13 +4766,13 @@
         <v>3544542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6569</v>
@@ -4736,18 +4781,18 @@
         <v>6938892</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4771,7 +4816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687012FD-C18B-45CD-B1CB-6232AAA45B7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490E911C-0848-4304-85DB-ADB7127880D6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4788,7 +4833,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4892,97 +4937,97 @@
         <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>10040</v>
+        <v>12856</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>11550</v>
+        <v>12156</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>292</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>203</v>
+        <v>308</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
       </c>
       <c r="N4" s="7">
-        <v>21589</v>
+        <v>25012</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>293</v>
+        <v>210</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>322</v>
       </c>
       <c r="D5" s="7">
-        <v>250258</v>
+        <v>298587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="H5" s="7">
         <v>517</v>
       </c>
       <c r="I5" s="7">
-        <v>259853</v>
+        <v>277479</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>211</v>
+        <v>314</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
         <v>839</v>
       </c>
       <c r="N5" s="7">
-        <v>510111</v>
+        <v>576065</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,51 +5039,51 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5047,97 +5092,97 @@
         <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>23848</v>
+        <v>24509</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
       </c>
       <c r="I7" s="7">
-        <v>24717</v>
+        <v>23084</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>56</v>
+        <v>321</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
       </c>
       <c r="N7" s="7">
-        <v>48565</v>
+        <v>47593</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>366</v>
       </c>
       <c r="D8" s="7">
-        <v>494379</v>
+        <v>492884</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="H8" s="7">
         <v>679</v>
       </c>
       <c r="I8" s="7">
-        <v>527915</v>
+        <v>490101</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>65</v>
+        <v>331</v>
       </c>
       <c r="M8" s="7">
         <v>1045</v>
       </c>
       <c r="N8" s="7">
-        <v>1022294</v>
+        <v>982985</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,51 +5194,51 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>714</v>
       </c>
       <c r="I9" s="7">
-        <v>552632</v>
+        <v>513185</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1095</v>
       </c>
       <c r="N9" s="7">
-        <v>1070859</v>
+        <v>1030578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5202,97 +5247,97 @@
         <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>13978</v>
+        <v>13424</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>321</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>18952</v>
+        <v>17661</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>324</v>
+        <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
       </c>
       <c r="N10" s="7">
-        <v>32930</v>
+        <v>31084</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>342</v>
       </c>
       <c r="D11" s="7">
-        <v>308262</v>
+        <v>302626</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>330</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>507</v>
       </c>
       <c r="I11" s="7">
-        <v>354332</v>
+        <v>331467</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>333</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7">
         <v>849</v>
       </c>
       <c r="N11" s="7">
-        <v>662594</v>
+        <v>634094</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,51 +5349,51 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5357,97 +5402,97 @@
         <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>12329</v>
+        <v>12054</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>22701</v>
+        <v>76523</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
       </c>
       <c r="N13" s="7">
-        <v>35031</v>
+        <v>88576</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>281</v>
       </c>
       <c r="D14" s="7">
-        <v>309911</v>
+        <v>300503</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>268</v>
       </c>
       <c r="H14" s="7">
         <v>585</v>
       </c>
       <c r="I14" s="7">
-        <v>405855</v>
+        <v>399195</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="M14" s="7">
         <v>866</v>
       </c>
       <c r="N14" s="7">
-        <v>715765</v>
+        <v>699698</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,51 +5504,51 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5512,97 +5557,97 @@
         <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>3773</v>
+        <v>3430</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
       </c>
       <c r="I16" s="7">
-        <v>12117</v>
+        <v>10594</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>356</v>
+        <v>262</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
       </c>
       <c r="N16" s="7">
-        <v>15891</v>
+        <v>14025</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>276</v>
       </c>
       <c r="D17" s="7">
-        <v>192975</v>
+        <v>175312</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>469</v>
       </c>
       <c r="I17" s="7">
-        <v>218452</v>
+        <v>196848</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="M17" s="7">
         <v>745</v>
       </c>
       <c r="N17" s="7">
-        <v>411426</v>
+        <v>372159</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,51 +5659,51 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>489</v>
       </c>
       <c r="I18" s="7">
-        <v>230569</v>
+        <v>207442</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>768</v>
       </c>
       <c r="N18" s="7">
-        <v>427317</v>
+        <v>386184</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5667,97 +5712,97 @@
         <v>16</v>
       </c>
       <c r="D19" s="7">
-        <v>9958</v>
+        <v>9608</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>371</v>
+        <v>140</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
       </c>
       <c r="I19" s="7">
-        <v>15007</v>
+        <v>13933</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>382</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
       </c>
       <c r="N19" s="7">
-        <v>24966</v>
+        <v>23541</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>202</v>
+        <v>296</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>355</v>
       </c>
       <c r="D20" s="7">
-        <v>267265</v>
+        <v>260028</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>377</v>
+        <v>206</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>379</v>
+        <v>148</v>
       </c>
       <c r="H20" s="7">
         <v>431</v>
       </c>
       <c r="I20" s="7">
-        <v>259898</v>
+        <v>242454</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>27</v>
+        <v>387</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M20" s="7">
         <v>786</v>
       </c>
       <c r="N20" s="7">
-        <v>527161</v>
+        <v>502482</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>212</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,51 +5814,51 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>274905</v>
+        <v>256387</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552127</v>
+        <v>526023</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5822,97 +5867,97 @@
         <v>20</v>
       </c>
       <c r="D22" s="7">
-        <v>22838</v>
+        <v>23486</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>61</v>
+        <v>391</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>232</v>
+        <v>392</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="H22" s="7">
         <v>78</v>
       </c>
       <c r="I22" s="7">
-        <v>52794</v>
+        <v>48847</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="M22" s="7">
         <v>98</v>
       </c>
       <c r="N22" s="7">
-        <v>75632</v>
+        <v>72333</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>576</v>
       </c>
       <c r="D23" s="7">
-        <v>601817</v>
+        <v>597820</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>69</v>
+        <v>400</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>238</v>
+        <v>402</v>
       </c>
       <c r="H23" s="7">
         <v>880</v>
       </c>
       <c r="I23" s="7">
-        <v>750551</v>
+        <v>799626</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="M23" s="7">
         <v>1456</v>
       </c>
       <c r="N23" s="7">
-        <v>1352368</v>
+        <v>1397447</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>346</v>
+        <v>406</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,51 +5969,51 @@
         <v>596</v>
       </c>
       <c r="D24" s="7">
-        <v>624655</v>
+        <v>621306</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>958</v>
       </c>
       <c r="I24" s="7">
-        <v>803345</v>
+        <v>848473</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1554</v>
       </c>
       <c r="N24" s="7">
-        <v>1428000</v>
+        <v>1469780</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5977,97 +6022,97 @@
         <v>27</v>
       </c>
       <c r="D25" s="7">
-        <v>33228</v>
+        <v>27909</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>36</v>
+        <v>409</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
       </c>
       <c r="I25" s="7">
-        <v>31714</v>
+        <v>26550</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>61</v>
+        <v>412</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>398</v>
+        <v>318</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
       </c>
       <c r="N25" s="7">
-        <v>64942</v>
+        <v>54459</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>401</v>
+        <v>198</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>402</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>735</v>
       </c>
       <c r="D26" s="7">
-        <v>826200</v>
+        <v>900811</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>44</v>
+        <v>414</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="H26" s="7">
         <v>1019</v>
       </c>
       <c r="I26" s="7">
-        <v>833958</v>
+        <v>688842</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>69</v>
+        <v>417</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>406</v>
+        <v>328</v>
       </c>
       <c r="M26" s="7">
         <v>1754</v>
       </c>
       <c r="N26" s="7">
-        <v>1660158</v>
+        <v>1589653</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>407</v>
+        <v>289</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>408</v>
+        <v>101</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>409</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,46 +6124,46 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,97 +6177,97 @@
         <v>119</v>
       </c>
       <c r="D28" s="7">
-        <v>129993</v>
+        <v>127276</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>411</v>
+        <v>125</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>341</v>
+        <v>420</v>
       </c>
       <c r="H28" s="7">
         <v>267</v>
       </c>
       <c r="I28" s="7">
-        <v>189553</v>
+        <v>229348</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="M28" s="7">
         <v>386</v>
       </c>
       <c r="N28" s="7">
-        <v>319546</v>
+        <v>356624</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3253</v>
       </c>
       <c r="D29" s="7">
-        <v>3251065</v>
+        <v>3328571</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>349</v>
+        <v>428</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>419</v>
+        <v>132</v>
       </c>
       <c r="H29" s="7">
         <v>5087</v>
       </c>
       <c r="I29" s="7">
-        <v>3610813</v>
+        <v>3426011</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="M29" s="7">
         <v>8340</v>
       </c>
       <c r="N29" s="7">
-        <v>6861878</v>
+        <v>6754583</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6234,51 +6279,51 @@
         <v>3372</v>
       </c>
       <c r="D30" s="7">
-        <v>3381058</v>
+        <v>3455847</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>5354</v>
       </c>
       <c r="I30" s="7">
-        <v>3800366</v>
+        <v>3655359</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>8726</v>
       </c>
       <c r="N30" s="7">
-        <v>7181424</v>
+        <v>7111207</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
